--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_179.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_179.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,348 +488,405 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
-        </is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.172360248447205</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F'], ['C:7', 'F', 'C']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.48, 31.26), (77.3, 80.48)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.527551, 47.02687), (39.386636, 52.14687)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:51.690000', '0:00:55.720000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:00:20.080000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.88, 6.56)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:18', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'E']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E/5']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(65.747, 81.235)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(59.907505, 63.843287)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06724644781969623</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:14.380000', '0:01:24.380000'), ('0:01:12.820000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:14.320000'), ('0:00:19.780000', '0:00:23.120000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1882352941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(122.78, 137.555)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:45', '0:01:48.240000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(46.93228, 61.200942)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.525011, 20.319206)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:02.480000', '0:01:05.220000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.655, 46.22)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1317204301075269</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -832,265 +894,262 @@
           <t>isophonics_53</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24)]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834)]</t>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:49.480000', '0:00:52.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08832236842105262</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(112.415782, 119.834557)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.72, 7.99)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1207729468599034</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.536, 9.774)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:min/5', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#:min', 'A', 'E']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.806319, 29.903099)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(52.001111, 58.59169)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2635135135135135</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.82, 17.23), (14.59, 16.26)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(212.6, 224.4), (234.26, 246.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:7', 'C', 'C/b7']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(32.486, 38.588)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.44, 12.42)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2678571428571428</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'G/5', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D/2', 'D/3', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(35.013, 41.726)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(56.75352, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
